--- a/biology/Botanique/Nouveau_Poiteau/Nouveau_Poiteau.xlsx
+++ b/biology/Botanique/Nouveau_Poiteau/Nouveau_Poiteau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Nouveau Poiteau est une variété de poire ancienne[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Nouveau Poiteau est une variété de poire ancienne.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Retour de Rome.
 Choix d'un amateur.
-Tombe de l'amateur[1].</t>
+Tombe de l'amateur.</t>
         </is>
       </c>
     </row>
@@ -543,10 +557,12 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La variété Nouveau Poiteau, obtenue en Belgique, date d'avant 1850. Elle est dédiée à Pierre-Antoine Poiteau, auteur de la Pomologie française, par les fils de l'obtenteur de variétés et professeur belge Van Mons et M. Bouvier de Jodoigne[1].
-Le qualificatif de "Nouveau" est utilisé pour faire la distinction avec une obtention "Poiteau" précédente[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La variété Nouveau Poiteau, obtenue en Belgique, date d'avant 1850. Elle est dédiée à Pierre-Antoine Poiteau, auteur de la Pomologie française, par les fils de l'obtenteur de variétés et professeur belge Van Mons et M. Bouvier de Jodoigne.
+Le qualificatif de "Nouveau" est utilisé pour faire la distinction avec une obtention "Poiteau" précédente.
 </t>
         </is>
       </c>
@@ -577,17 +593,57 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arbre
-Culture : cette variété est vigoureuse et fertile. Sa place est dans chaque jardin d'amateur et aussi en culture intensive pour l'approvisionnement des marchés.
-Fruit d'amateur et de commerce[3].
-Fruit
-Nouveau Poiteau est gros ou très gros, oblong ou ovoïde, irrégulier.
+          <t>Arbre</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Culture : cette variété est vigoureuse et fertile. Sa place est dans chaque jardin d'amateur et aussi en culture intensive pour l'approvisionnement des marchés.
+Fruit d'amateur et de commerce.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Nouveau_Poiteau</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nouveau_Poiteau</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fruit</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nouveau Poiteau est gros ou très gros, oblong ou ovoïde, irrégulier.
 Pédicelle moyen ou long, oblique ou arqué, charnu.
 Œil mi-clos ou fermé dans une cavité large et profonde.
 Épiderme fauve bronzé ou vert foncé, fortement rouillé par larges plaques.
 Chair blanche, verdâtre sous l'épiderme, très fondante, très juteuse, sucrée.
 Qualité : très bonne.
-Maturité : octobre[3],[Note 1].
+Maturité : octobre,[Note 1].
 </t>
         </is>
       </c>
